--- a/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
+++ b/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3903</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3700</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2835</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1965</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1758</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>565</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>546</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>529</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>488</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
+++ b/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3920</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3692</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2806</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1947</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>825</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>618</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
+++ b/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3928</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3700</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2815</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1952</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>812</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>596</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>524</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
+++ b/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3903</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3712</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2836</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1940</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>836</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>577</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>507</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>494</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
+++ b/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3910</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3723</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2804</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1946</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1733</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>809</v>
+        <v>818</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>615</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>518</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
+++ b/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3927</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3708</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2838</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1981</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1723</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>818</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>489</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
+++ b/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3839</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3660</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2798</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2010</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1754</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>787</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
+++ b/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
@@ -462,67 +462,67 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3861</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3664</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Stationery &amp; Office</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Stationery &amp; Office</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2816</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Stationery &amp; Office</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stationery &amp; Office</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2003</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1743</v>
+        <v>915</v>
       </c>
     </row>
     <row r="7">
@@ -537,52 +537,52 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>799</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Home Decor</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>592</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Party Supplies</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Party Supplies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>542</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Home Decor</t>
+          <t>Garden &amp; Outdoor</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vintage &amp; Collectibles</t>
+          <t>Garden &amp; Outdoor</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>528</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>517</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
+++ b/Results/whole_dataset/whole_dataset_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3220</v>
+        <v>15848</v>
       </c>
     </row>
     <row r="3">
@@ -477,127 +477,127 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2755</v>
+        <v>10976</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stationery &amp; Office</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stationery &amp; Office</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1568</v>
+        <v>7946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1366</v>
+        <v>6008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Stationery &amp; Office</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Stationery &amp; Office</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>915</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kids &amp; Toys</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kids &amp; Toys</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>744</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>536</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Party Supplies</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Party Supplies</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>420</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Garden &amp; Outdoor</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Garden &amp; Outdoor</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>403</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Fashion &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Home Decor</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Kitchen &amp; Dining</t>
-        </is>
-      </c>
       <c r="C11" t="n">
-        <v>373</v>
+        <v>3057</v>
       </c>
     </row>
   </sheetData>
